--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="sc_login" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sc_pay" sheetId="3" r:id="rId2"/>
+    <sheet name="sc_login" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>case_name</t>
   </si>
@@ -57,16 +58,49 @@
     <t>name=xiaoming&amp;pwd=</t>
   </si>
   <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>/pay</t>
+  </si>
+  <si>
+    <t>discountAmount=0&amp;goodsTotalAmount=2100&amp;payableAmount=2100&amp;totalAmount=2100&amp;check.totalAmount=2100&amp;check.noDiscountAmount=0&amp;phone=15617816228&amp;storeId=117&amp;type=5</t>
+  </si>
+  <si>
+    <t>操作成功1</t>
+  </si>
+  <si>
     <t>phone=15617816228&amp;password=123456</t>
   </si>
   <si>
+    <t>操作成功</t>
+  </si>
+  <si>
     <t>phone=15617816228&amp;password=112221</t>
   </si>
   <si>
-    <t>phone=13213086437&amp;password=</t>
+    <t>用户名或密码错误</t>
+  </si>
+  <si>
+    <t>login_error2</t>
+  </si>
+  <si>
+    <t>phone=13213086437&amp;password=123456</t>
+  </si>
+  <si>
+    <t>账号不存在</t>
   </si>
   <si>
     <t>phone=15617816228&amp;password=</t>
+  </si>
+  <si>
+    <t>参数不能为空</t>
   </si>
 </sst>
 </file>
@@ -75,8 +109,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,53 +129,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,71 +252,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,31 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,151 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,21 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -485,11 +498,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,145 +574,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,21 +1168,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="E3 C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:4">
+    <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,61 +1197,31 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="84" customHeight="1" spans="1:4">
+    <row r="2" ht="84" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="77" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="72" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="72" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1228,6 +1234,132 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="84" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="77" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="72" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="72" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="48" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1236,8 +1368,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="sc_pay" sheetId="3" r:id="rId2"/>
-    <sheet name="sc_login" sheetId="2" r:id="rId3"/>
+    <sheet name="sc_login" sheetId="2" r:id="rId2"/>
+    <sheet name="sc_pay" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>case_name</t>
   </si>
@@ -58,12 +58,39 @@
     <t>name=xiaoming&amp;pwd=</t>
   </si>
   <si>
+    <t>phone=15617816228&amp;password=123456&amp;type=2</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
     <t>auc</t>
   </si>
   <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>phone=15617816228&amp;password=112221&amp;type=2</t>
+  </si>
+  <si>
+    <t>账号或密码错误</t>
+  </si>
+  <si>
+    <t>login_error2</t>
+  </si>
+  <si>
+    <t>phone=13213086437&amp;password=123456&amp;type=2</t>
+  </si>
+  <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
+    <t>phone=15617816228&amp;password=&amp;type=2</t>
+  </si>
+  <si>
+    <t>手机号或密码不能为空</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
@@ -73,34 +100,10 @@
     <t>discountAmount=0&amp;goodsTotalAmount=2100&amp;payableAmount=2100&amp;totalAmount=2100&amp;check.totalAmount=2100&amp;check.noDiscountAmount=0&amp;phone=15617816228&amp;storeId=117&amp;type=5</t>
   </si>
   <si>
-    <t>操作成功1</t>
-  </si>
-  <si>
-    <t>phone=15617816228&amp;password=123456</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>phone=15617816228&amp;password=112221</t>
-  </si>
-  <si>
-    <t>用户名或密码错误</t>
-  </si>
-  <si>
-    <t>login_error2</t>
-  </si>
-  <si>
-    <t>phone=13213086437&amp;password=123456</t>
-  </si>
-  <si>
-    <t>账号不存在</t>
-  </si>
-  <si>
-    <t>phone=15617816228&amp;password=</t>
-  </si>
-  <si>
-    <t>参数不能为空</t>
+    <t>pay_null</t>
+  </si>
+  <si>
+    <t>未登录</t>
   </si>
 </sst>
 </file>
@@ -108,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -130,6 +133,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,8 +222,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +247,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,82 +268,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,19 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,157 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,21 +508,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -531,23 +525,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +554,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,76 +1171,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="E3 C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="84" customHeight="1" spans="1:6">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1257,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="84" customHeight="1" spans="1:6">
@@ -1277,13 +1214,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1297,13 +1234,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1311,19 +1248,19 @@
     </row>
     <row r="4" ht="72" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1337,19 +1274,105 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="48" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="84" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="84" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
